--- a/config/data/星际争霸配置表.xlsx
+++ b/config/data/星际争霸配置表.xlsx
@@ -1932,43 +1932,43 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fightTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>anger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>defence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>blood</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>res</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1983,7 +1983,7 @@
       </rPr>
       <t>tory0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1998,7 +1998,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2013,62 +2013,98 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>awardCoin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>awardMi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>awardItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>star</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>needStarNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10001/10002/10003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20001/20002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>needStarNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>20001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2195,16 +2231,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2556,7 +2592,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2594,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -2656,25 +2692,25 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4">
-        <v>18000</v>
+        <v>70000</v>
       </c>
       <c r="G4">
-        <v>17000</v>
+        <v>69500</v>
       </c>
       <c r="H4">
-        <v>380000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>630000</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="K4" s="7">
         <v>30001</v>
@@ -2683,13 +2719,13 @@
         <v>6000</v>
       </c>
       <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
       <c r="P4">
         <v>100000000</v>
@@ -2711,7 +2747,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2727,7 +2763,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2742,7 +2778,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/config/data/星际争霸配置表.xlsx
+++ b/config/data/星际争霸配置表.xlsx
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2692,19 +2692,19 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4">
-        <v>70000</v>
+        <v>500000</v>
       </c>
       <c r="G4">
-        <v>69500</v>
+        <v>490000</v>
       </c>
       <c r="H4">
-        <v>630000</v>
+        <v>5000000</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -2731,10 +2731,10 @@
         <v>100000000</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>80001</v>
       </c>
       <c r="S4">
         <v>0</v>
